--- a/SCBAA/2016/Region 3.xlsx
+++ b/SCBAA/2016/Region 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C398D5-9609-4890-B571-44D4365EB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1AB6D6-72B9-4934-9764-2DE775E24FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14625" windowHeight="12540" xr2:uid="{F3FE2CA0-A999-42AE-93A6-084926D44761}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="13170" xr2:uid="{F3FE2CA0-A999-42AE-93A6-084926D44761}"/>
   </bookViews>
   <sheets>
     <sheet name="Malolos" sheetId="15" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="79">
   <si>
     <t>TOTAL APPROPRIATIONS</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>CITY OF TARLAC</t>
+  </si>
+  <si>
+    <t>CITY OF MALOLOS</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEED7527-2249-4F44-ADBD-CB9B746AE72E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1153,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -2154,9 +2157,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="28"/>
-      <c r="G96" s="16">
-        <v>0</v>
-      </c>
+      <c r="G96" s="16"/>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -7099,7 +7100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176711-E54D-4CCC-88B6-13AA8247E6C7}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
@@ -14244,7 +14245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90685D36-23CA-4D7E-ABC8-7FC1A4AD814A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>

--- a/SCBAA/2016/Region 3.xlsx
+++ b/SCBAA/2016/Region 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1AB6D6-72B9-4934-9764-2DE775E24FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BE92AD-8732-47BB-81BC-2C9835BDB09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="13170" xr2:uid="{F3FE2CA0-A999-42AE-93A6-084926D44761}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" activeTab="1" xr2:uid="{F3FE2CA0-A999-42AE-93A6-084926D44761}"/>
   </bookViews>
   <sheets>
     <sheet name="Malolos" sheetId="15" r:id="rId1"/>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEED7527-2249-4F44-ADBD-CB9B746AE72E}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8293,8 +8293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C67CDAE-4F8F-415E-8517-CB1337F3F303}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9147,6 +9147,9 @@
       <c r="C81" s="16"/>
       <c r="D81" s="26" t="s">
         <v>14</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
